--- a/Generate Yearly Report/Data/Output/Yearly-Report-2021-DE456232.xlsx
+++ b/Generate Yearly Report/Data/Output/Yearly-Report-2021-DE456232.xlsx
@@ -724,6 +724,282 @@
         <x:v>25</x:v>
       </x:c>
     </x:row>
+    <x:row r="13" spans="1:7">
+      <x:c r="A13" s="0" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B13" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C13" s="0" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D13" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="E13" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="F13" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="G13" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:7">
+      <x:c r="A14" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="B14" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="C14" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="D14" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="E14" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F14" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="G14" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15" spans="1:7">
+      <x:c r="A15" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="B15" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C15" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="D15" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="E15" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F15" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="G15" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16" spans="1:7">
+      <x:c r="A16" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B16" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C16" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D16" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E16" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="F16" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="G16" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17" spans="1:7">
+      <x:c r="A17" s="0" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B17" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C17" s="0" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D17" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="E17" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="F17" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="G17" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18" spans="1:7">
+      <x:c r="A18" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="B18" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="C18" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="D18" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="E18" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F18" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="G18" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19" spans="1:7">
+      <x:c r="A19" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="B19" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C19" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="D19" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="E19" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F19" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="G19" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20" spans="1:7">
+      <x:c r="A20" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B20" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C20" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D20" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E20" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="F20" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="G20" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21" spans="1:7">
+      <x:c r="A21" s="0" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B21" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C21" s="0" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D21" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="E21" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="F21" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="G21" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="22" spans="1:7">
+      <x:c r="A22" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="B22" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="C22" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="D22" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="E22" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F22" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="G22" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="23" spans="1:7">
+      <x:c r="A23" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="B23" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C23" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="D23" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="E23" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F23" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="G23" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="24" spans="1:7">
+      <x:c r="A24" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B24" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C24" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D24" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E24" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="F24" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="G24" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
